--- a/prisma/seed-data/dataAtlit.xlsx
+++ b/prisma/seed-data/dataAtlit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
   <si>
     <t xml:space="preserve">nama</t>
   </si>
@@ -393,17 +393,78 @@
   </si>
   <si>
     <t xml:space="preserve"> Bantul,10 Maret 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Firdaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulon Peogo, 07/10/2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082194990589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Zidan Alviano Y. W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bekasi, 25/06/2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">085701701906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Azka Aqlus Sadid Marda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanggulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulon Progo, 08/04/2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082133780910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuri Fitria Warapsari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogyakarta11/03/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082134043713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trianov Dinar Ladiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulon Progo, 24/11/2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081388384025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djuleyha Revalina Fadira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulon Progo, 27/06/2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082323590727</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -439,6 +500,26 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -448,7 +529,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -461,6 +542,34 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -489,7 +598,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,12 +619,76 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -535,17 +708,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
+      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.17"/>
@@ -1311,11 +1484,126 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
